--- a/annotation_sets/WETH_UNI_SWAP.xlsx
+++ b/annotation_sets/WETH_UNI_SWAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Desktop/Eulith_AI_Agent/annotation_sets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424043CF-FC43-214F-AEA8-ECAD83AA73F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74EA634-B5CF-644A-BE18-CE2D33722E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{90E524BF-A6F7-EA42-A546-298465B84D46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="423">
   <si>
     <t>"Set up a WETH and UNI swap"</t>
   </si>
@@ -993,6 +993,318 @@
   </si>
   <si>
     <t>"Commence a hassle-free USDC-WETH swap"</t>
+  </si>
+  <si>
+    <t>"Set up a WETH and USDC swap"</t>
+  </si>
+  <si>
+    <t>"Initiate a swap between WETH and USDC"</t>
+  </si>
+  <si>
+    <t>"Perform a WETH to USDC swap"</t>
+  </si>
+  <si>
+    <t>"Exchange WETH for USDC"</t>
+  </si>
+  <si>
+    <t>"Swap WETH with USDC"</t>
+  </si>
+  <si>
+    <t>"Conduct a WETH-USDC swap"</t>
+  </si>
+  <si>
+    <t>"Execute a WETH and USDC swap"</t>
+  </si>
+  <si>
+    <t>"Create a swap between WETH and USDC"</t>
+  </si>
+  <si>
+    <t>"Implement a WETH-USDC swap"</t>
+  </si>
+  <si>
+    <t>"Organize a WETH and USDC swap"</t>
+  </si>
+  <si>
+    <t>"I'd like to swap WETH for USDC"</t>
+  </si>
+  <si>
+    <t>"I want to exchange WETH and USDC"</t>
+  </si>
+  <si>
+    <t>"I wish to swap WETH with USDC"</t>
+  </si>
+  <si>
+    <t>"I desire to swap WETH and USDC"</t>
+  </si>
+  <si>
+    <t>"I'd like to trade WETH for USDC"</t>
+  </si>
+  <si>
+    <t>"I want to switch WETH and USDC"</t>
+  </si>
+  <si>
+    <t>"I want to perform a WETH-USDC swap"</t>
+  </si>
+  <si>
+    <t>"I want to carry out a WETH-USDC swap"</t>
+  </si>
+  <si>
+    <t>"I want to conduct a swap between WETH and USDC"</t>
+  </si>
+  <si>
+    <t>"I'd like to execute a WETH and USDC swap"</t>
+  </si>
+  <si>
+    <t>"I want to perform a basic WETH-USDC swap"</t>
+  </si>
+  <si>
+    <t>"I'd like to do a simple WETH and USDC swap"</t>
+  </si>
+  <si>
+    <t>"I want to make a basic swap between WETH and USDC"</t>
+  </si>
+  <si>
+    <t>"I'd like to carry out a simple WETH-USDC swap"</t>
+  </si>
+  <si>
+    <t>"I want to execute a straightforward WETH-USDC swap"</t>
+  </si>
+  <si>
+    <t>"I'd like to conduct a basic swap between WETH and USDC"</t>
+  </si>
+  <si>
+    <t>"I want to do a simple exchange between WETH and USDC"</t>
+  </si>
+  <si>
+    <t>"I'd like to perform a no-frills WETH-USDC swap"</t>
+  </si>
+  <si>
+    <t>"I want to make a straightforward WETH and USDC swap"</t>
+  </si>
+  <si>
+    <t>"I'd like to execute a simple WETH and USDC exchange"</t>
+  </si>
+  <si>
+    <t>"I want to swap WETH and USDC without atomic execution"</t>
+  </si>
+  <si>
+    <t>"I'd like to do a non-atomic WETH-USDC swap"</t>
+  </si>
+  <si>
+    <t>"I want a non-atomic exchange between WETH and USDC"</t>
+  </si>
+  <si>
+    <t>"I'd like to perform a WETH-USDC swap without atomicity"</t>
+  </si>
+  <si>
+    <t>"I want to carry out a WETH and USDC swap without atomic execution"</t>
+  </si>
+  <si>
+    <t>"I'd like to conduct a non-atomic WETH and USDC exchange"</t>
+  </si>
+  <si>
+    <t>"I want to execute a WETH-USDC swap without atomic transactions"</t>
+  </si>
+  <si>
+    <t>"I'd like to do a WETH and USDC swap with no atomic execution"</t>
+  </si>
+  <si>
+    <t>"I want a WETH-USDC swap without atomic operations"</t>
+  </si>
+  <si>
+    <t>"I'd like to perform a WETH and USDC exchange without atomicity"</t>
+  </si>
+  <si>
+    <t>"I want a WETH-USDC swap that isn't atomic"</t>
+  </si>
+  <si>
+    <t>"I'd like a non-atomic WETH/USDC swap"</t>
+  </si>
+  <si>
+    <t>"I desire a WETH and USDC swap without atomic execution"</t>
+  </si>
+  <si>
+    <t>"I wish for a non-atomic WETH-USDC exchange"</t>
+  </si>
+  <si>
+    <t>"I seek a WETH/USDC swap that isn't atomic"</t>
+  </si>
+  <si>
+    <t>"I want to do a WETH-USDC swap that's non-atomic"</t>
+  </si>
+  <si>
+    <t>"I'd like a WETH and USDC exchange without atomic transactions"</t>
+  </si>
+  <si>
+    <t>"I want a WETH-USDC trade without atomic execution"</t>
+  </si>
+  <si>
+    <t>"I'd like a non-atomic swap between WETH and USDC"</t>
+  </si>
+  <si>
+    <t>"I desire a non-atomic WETH-USDC trade"</t>
+  </si>
+  <si>
+    <t>"I want a WETH/USDC exchange without atomicity"</t>
+  </si>
+  <si>
+    <t>"I'd like a non-atomic transaction between WETH and USDC"</t>
+  </si>
+  <si>
+    <t>"I want a WETH-USDC swap without atomic transaction execution"</t>
+  </si>
+  <si>
+    <t>"I'd like to have a non-atomic WETH and USDC swap"</t>
+  </si>
+  <si>
+    <t>"I want a non-atomically executed WETH-USDC swap"</t>
+  </si>
+  <si>
+    <t>"I'd like a WETH-USDC exchange that isn't atomic"</t>
+  </si>
+  <si>
+    <t>"I want a WETH and USDC swap without atomic requirements"</t>
+  </si>
+  <si>
+    <t>"I'd like a WETH-USDC transaction without atomic execution"</t>
+  </si>
+  <si>
+    <t>"I want a WETH/USDC exchange that's non-atomic"</t>
+  </si>
+  <si>
+    <t>"Initiate a WETH-USDC exchange without atomic execution"</t>
+  </si>
+  <si>
+    <t>"Set up a non-atomic swap for WETH and USDC"</t>
+  </si>
+  <si>
+    <t>"Arrange a WETH and USDC swap without atomic transactions"</t>
+  </si>
+  <si>
+    <t>"Configure a non-atomic WETH-USDC exchange"</t>
+  </si>
+  <si>
+    <t>"Start a WETH-USDC swap without atomicity"</t>
+  </si>
+  <si>
+    <t>"Prepare a non-atomic exchange between WETH and USDC"</t>
+  </si>
+  <si>
+    <t>"Organize a WETH-USDC swap without atomic execution"</t>
+  </si>
+  <si>
+    <t>"Implement a non-atomic swap of WETH and USDC"</t>
+  </si>
+  <si>
+    <t>"Establish a WETH-USDC exchange without atomicity"</t>
+  </si>
+  <si>
+    <t>"Set in motion a non-atomic WETH and USDC swap"</t>
+  </si>
+  <si>
+    <t>"Kick off a WETH and USDC swap without atomic execution"</t>
+  </si>
+  <si>
+    <t>"Launch a non-atomic WETH-USDC exchange"</t>
+  </si>
+  <si>
+    <t>"Begin a WETH and USDC swap without atomic transactions"</t>
+  </si>
+  <si>
+    <t>"Commence a non-atomic WETH-USDC swap"</t>
+  </si>
+  <si>
+    <t>"Start up a WETH and USDC exchange without atomicity"</t>
+  </si>
+  <si>
+    <t>"Get going with a non-atomic WETH-USDC swap"</t>
+  </si>
+  <si>
+    <t>"Trigger a WETH and USDC swap without atomic execution"</t>
+  </si>
+  <si>
+    <t>"Activate a non-atomic WETH-USDC exchange"</t>
+  </si>
+  <si>
+    <t>"Initiate a WETH and USDC swap without atomic transactions"</t>
+  </si>
+  <si>
+    <t>"Set up a non-atomic WETH-USDC swap"</t>
+  </si>
+  <si>
+    <t>"Arrange a simple WETH-USDC swap"</t>
+  </si>
+  <si>
+    <t>"Configure an easy WETH and USDC swap"</t>
+  </si>
+  <si>
+    <t>"Start a basic exchange between WETH and USDC"</t>
+  </si>
+  <si>
+    <t>"Prepare a straightforward WETH-USDC swap"</t>
+  </si>
+  <si>
+    <t>"Organize a simple WETH and USDC exchange"</t>
+  </si>
+  <si>
+    <t>"Implement a basic WETH-USDC swap"</t>
+  </si>
+  <si>
+    <t>"Establish a simple WETH and USDC trade"</t>
+  </si>
+  <si>
+    <t>"Set in motion a WETH-USDC swap without complications"</t>
+  </si>
+  <si>
+    <t>"Kick off an uncomplicated WETH and USDC swap"</t>
+  </si>
+  <si>
+    <t>"Launch an elementary WETH-USDC exchange"</t>
+  </si>
+  <si>
+    <t>"Begin a plain WETH and USDC swap"</t>
+  </si>
+  <si>
+    <t>"Commence a simple WETH-USDC trade"</t>
+  </si>
+  <si>
+    <t>"Start up an easy WETH and USDC exchange"</t>
+  </si>
+  <si>
+    <t>"Get going with a basic WETH-USDC swap"</t>
+  </si>
+  <si>
+    <t>"Trigger a straightforward WETH and USDC trade"</t>
+  </si>
+  <si>
+    <t>"Activate a WETH-USDC exchange without frills"</t>
+  </si>
+  <si>
+    <t>"Initiate an uncomplicated WETH and USDC swap"</t>
+  </si>
+  <si>
+    <t>"Set up a WETH-USDC trade without complexities"</t>
+  </si>
+  <si>
+    <t>"Arrange an elementary WETH and USDC exchange"</t>
+  </si>
+  <si>
+    <t>"Configure a no-fuss WETH-USDC swap"</t>
+  </si>
+  <si>
+    <t>"Start a WETH and USDC swap without bells and whistles"</t>
+  </si>
+  <si>
+    <t>"Prepare a WETH-USDC exchange without extras"</t>
+  </si>
+  <si>
+    <t>"Organize a bare-bones WETH and USDC swap"</t>
+  </si>
+  <si>
+    <t>"Implement a WETH-USDC trade with no frills"</t>
+  </si>
+  <si>
+    <t>"Establish a basic WETH and USDC exchange"</t>
   </si>
 </sst>
 </file>
@@ -1351,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFC90CD-1C95-0248-95C8-5DE38A4F9E38}">
-  <dimension ref="A1:A319"/>
+  <dimension ref="A1:A423"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B52" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2954,6 +3266,526 @@
         <v>318</v>
       </c>
     </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>422</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/annotation_sets/WETH_UNI_SWAP.xlsx
+++ b/annotation_sets/WETH_UNI_SWAP.xlsx
@@ -1,42 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Desktop/Eulith_AI_Agent/annotation_sets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74EA634-B5CF-644A-BE18-CE2D33722E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{90E524BF-A6F7-EA42-A546-298465B84D46}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="424">
+  <si>
+    <t>pre_prompt</t>
+  </si>
   <si>
     <t>"Set up a WETH and UNI swap"</t>
   </si>
@@ -1310,10 +1291,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1334,7 +1316,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -1346,21 +1335,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1371,10 +1365,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1401,116 +1395,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1522,2268 +1482,2299 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFC90CD-1C95-0248-95C8-5DE38A4F9E38}">
-  <dimension ref="A1:A423"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B52" sqref="B1:C1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="24">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+      <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+      <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+      <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+      <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+      <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+      <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+      <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+      <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+      <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+      <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+      <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+      <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+      <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+      <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+      <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+      <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+      <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+      <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+      <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+      <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+      <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+      <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+      <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+      <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+      <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+      <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+      <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+      <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
+      <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
+      <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
+      <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
+      <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
+      <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+      <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+      <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+      <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
+      <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+      <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
+      <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
+      <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
+      <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
+      <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
+      <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
+      <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
+      <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
+      <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
+      <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
+      <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
+      <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
+      <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
+      <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
+      <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
+      <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
+      <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
+      <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
+      <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
+      <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
+      <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
+      <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
+      <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
+      <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
+      <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
+      <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
+      <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
+      <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
+      <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
+      <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
+      <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
+      <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
+      <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
+      <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
+      <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
+      <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
+      <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
+      <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
+      <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
+      <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
+      <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
+      <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
+      <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
+      <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
+      <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
+      <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
+      <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
+      <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
+      <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
+      <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
+      <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
+      <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
+      <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
+      <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
+      <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
+      <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
+      <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
+      <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
+      <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
+      <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
+      <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
+      <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
+      <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
+      <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
+      <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
+      <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
+      <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
+      <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
+      <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
+      <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
+      <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
+      <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
+      <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
+      <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
+      <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
+      <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
+      <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
+      <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
+      <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
+      <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
+      <c r="A215" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
+      <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
+      <c r="A217" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
+      <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
+      <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
+      <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
+      <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
+      <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25">
+      <c r="A223" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
+      <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25">
+      <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
+      <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
+      <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
+      <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25">
+      <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25">
+      <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25">
+      <c r="A231" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25">
+      <c r="A232" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25">
+      <c r="A233" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25">
+      <c r="A234" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25">
+      <c r="A235" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25">
+      <c r="A236" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25">
+      <c r="A237" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25">
+      <c r="A238" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25">
+      <c r="A239" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25">
+      <c r="A240" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25">
+      <c r="A241" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25">
+      <c r="A242" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25">
+      <c r="A243" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25">
+      <c r="A244" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25">
+      <c r="A245" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25">
+      <c r="A246" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25">
+      <c r="A247" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25">
+      <c r="A248" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25">
+      <c r="A249" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25">
+      <c r="A250" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25">
+      <c r="A251" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25">
+      <c r="A252" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25">
+      <c r="A253" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25">
+      <c r="A254" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25">
+      <c r="A255" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25">
+      <c r="A256" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25">
+      <c r="A257" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25">
+      <c r="A258" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25">
+      <c r="A259" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25">
+      <c r="A260" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25">
+      <c r="A261" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25">
+      <c r="A262" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25">
+      <c r="A263" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25">
+      <c r="A264" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25">
+      <c r="A265" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25">
+      <c r="A266" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25">
+      <c r="A267" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25">
+      <c r="A268" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25">
+      <c r="A269" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25">
+      <c r="A270" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25">
+      <c r="A271" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25">
+      <c r="A272" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25">
+      <c r="A273" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25">
+      <c r="A274" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25">
+      <c r="A275" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25">
+      <c r="A276" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25">
+      <c r="A277" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25">
+      <c r="A278" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25">
+      <c r="A279" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25">
+      <c r="A280" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25">
+      <c r="A281" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25">
+      <c r="A282" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25">
+      <c r="A283" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25">
+      <c r="A284" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25">
+      <c r="A285" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25">
+      <c r="A286" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25">
+      <c r="A287" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25">
+      <c r="A288" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25">
+      <c r="A289" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25">
+      <c r="A290" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25">
+      <c r="A291" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25">
+      <c r="A292" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25">
+      <c r="A293" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25">
+      <c r="A294" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25">
+      <c r="A295" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25">
+      <c r="A296" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25">
+      <c r="A297" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25">
+      <c r="A298" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25">
+      <c r="A299" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25">
+      <c r="A300" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25">
+      <c r="A301" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="17.25">
+      <c r="A302" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="17.25">
+      <c r="A303" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="17.25">
+      <c r="A304" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="17.25">
+      <c r="A305" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="17.25">
+      <c r="A306" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="17.25">
+      <c r="A307" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="17.25">
+      <c r="A308" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="17.25">
+      <c r="A309" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="17.25">
+      <c r="A310" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="17.25">
+      <c r="A311" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="17.25">
+      <c r="A312" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="17.25">
+      <c r="A313" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="17.25">
+      <c r="A314" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25">
+      <c r="A315" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25">
+      <c r="A316" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="17.25">
+      <c r="A317" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="17.25">
+      <c r="A318" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="17.25">
+      <c r="A319" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="17.25">
+      <c r="A320" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="17.25">
+      <c r="A321" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="17.25">
+      <c r="A322" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="17.25">
+      <c r="A323" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="17.25">
+      <c r="A324" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="17.25">
+      <c r="A325" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="17.25">
+      <c r="A326" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="17.25">
+      <c r="A327" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="17.25">
+      <c r="A328" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="17.25">
+      <c r="A329" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="17.25">
+      <c r="A330" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="17.25">
+      <c r="A331" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="17.25">
+      <c r="A332" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="17.25">
+      <c r="A333" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="17.25">
+      <c r="A334" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="17.25">
+      <c r="A335" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="17.25">
+      <c r="A336" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="17.25">
+      <c r="A337" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="17.25">
+      <c r="A338" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="17.25">
+      <c r="A339" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="17.25">
+      <c r="A340" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="17.25">
+      <c r="A341" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="17.25">
+      <c r="A342" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="17.25">
+      <c r="A343" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="17.25">
+      <c r="A344" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="17.25">
+      <c r="A345" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="17.25">
+      <c r="A346" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="17.25">
+      <c r="A347" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="17.25">
+      <c r="A348" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="17.25">
+      <c r="A349" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="17.25">
+      <c r="A350" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="17.25">
+      <c r="A351" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="17.25">
+      <c r="A352" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="17.25">
+      <c r="A353" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="17.25">
+      <c r="A354" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="17.25">
+      <c r="A355" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="17.25">
+      <c r="A356" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="17.25">
+      <c r="A357" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="17.25">
+      <c r="A358" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="17.25">
+      <c r="A359" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="17.25">
+      <c r="A360" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="17.25">
+      <c r="A361" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="17.25">
+      <c r="A362" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="17.25">
+      <c r="A363" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="17.25">
+      <c r="A364" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="17.25">
+      <c r="A365" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="17.25">
+      <c r="A366" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="17.25">
+      <c r="A367" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="17.25">
+      <c r="A368" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="17.25">
+      <c r="A369" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A370" t="s">
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="17.25">
+      <c r="A370" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="17.25">
+      <c r="A371" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="17.25">
+      <c r="A372" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="17.25">
+      <c r="A373" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="17.25">
+      <c r="A374" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="17.25">
+      <c r="A375" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="17.25">
+      <c r="A376" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="17.25">
+      <c r="A377" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="17.25">
+      <c r="A378" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="17.25">
+      <c r="A379" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="17.25">
+      <c r="A380" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="17.25">
+      <c r="A381" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="17.25">
+      <c r="A382" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="17.25">
+      <c r="A383" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="17.25">
+      <c r="A384" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="17.25">
+      <c r="A385" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="17.25">
+      <c r="A386" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="17.25">
+      <c r="A387" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="17.25">
+      <c r="A388" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="17.25">
+      <c r="A389" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="17.25">
+      <c r="A390" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="17.25">
+      <c r="A391" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="17.25">
+      <c r="A392" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="17.25">
+      <c r="A393" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="17.25">
+      <c r="A394" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="17.25">
+      <c r="A395" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="17.25">
+      <c r="A396" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="17.25">
+      <c r="A397" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="17.25">
+      <c r="A398" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="17.25">
+      <c r="A399" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="17.25">
+      <c r="A400" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="17.25">
+      <c r="A401" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="17.25">
+      <c r="A402" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A403" t="s">
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="17.25">
+      <c r="A403" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="17.25">
+      <c r="A404" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="17.25">
+      <c r="A405" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="17.25">
+      <c r="A406" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="17.25">
+      <c r="A407" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="17.25">
+      <c r="A408" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="17.25">
+      <c r="A409" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A410" t="s">
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="17.25">
+      <c r="A410" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A411" t="s">
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="17.25">
+      <c r="A411" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" t="s">
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="17.25">
+      <c r="A412" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A413" t="s">
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="17.25">
+      <c r="A413" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="17.25">
+      <c r="A414" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="17.25">
+      <c r="A415" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="17.25">
+      <c r="A416" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="17.25">
+      <c r="A417" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="17.25">
+      <c r="A418" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" t="s">
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="17.25">
+      <c r="A419" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="17.25">
+      <c r="A420" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" t="s">
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="17.25">
+      <c r="A421" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" t="s">
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="17.25">
+      <c r="A422" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423" t="s">
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="17.25">
+      <c r="A423" s="1" t="s">
         <v>422</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="17.25">
+      <c r="A424" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
